--- a/docment/テスト項目関連/テスト項目書.xlsx
+++ b/docment/テスト項目関連/テスト項目書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="396" windowWidth="22056" windowHeight="8664" tabRatio="603" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="396" windowWidth="22056" windowHeight="8664" tabRatio="603" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="158">
   <si>
     <t>確認項目</t>
     <rPh sb="0" eb="2">
@@ -44,18 +44,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各推奨ブラウザで変わりなくアンカーリンクが機能するか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキスト・フォントは指定どおりの表示がされているか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像・リンクの指定が仮の文言のままになっていないか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>すべての推奨ブラウザで動作・表示に乱れがないか？</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -72,10 +60,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>階層が深すぎるディレクトリはないか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>読み込みが極端に低速なページは存在しないか？</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -89,10 +73,6 @@
   </si>
   <si>
     <t xml:space="preserve">CSSやJavaScript内で指定されたリンクが切れていないか？ </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アンカーリンクはすべて意図する箇所に移動されているか？</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1775,10 +1755,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テキスト・フォントは指定どおりの表示がされているか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その他</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
@@ -2042,6 +2018,14 @@
     <rPh sb="7" eb="8">
       <t>モ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像の指定が仮の文言のままになっていないか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストは指定どおりの表示がされているか？</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2565,6 +2549,78 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2574,27 +2630,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2607,151 +2699,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3070,17 +3054,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="121" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="121" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="121" t="s">
-        <v>158</v>
+      <c r="A1" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
@@ -3340,62 +3324,62 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="115" t="s">
-        <v>21</v>
+      <c r="B2" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="79" t="s">
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
+      <c r="A4" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="19"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -3403,15 +3387,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
+      <c r="B5" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
       <c r="I5" s="15"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6"/>
@@ -3419,15 +3403,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
+      <c r="B6" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
       <c r="I6" s="51"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6"/>
@@ -3435,15 +3419,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="B7" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
       <c r="I7" s="38"/>
       <c r="J7" s="2"/>
       <c r="K7" s="6"/>
@@ -3451,15 +3435,15 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="B8" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
       <c r="I8" s="34"/>
       <c r="J8" s="2"/>
       <c r="K8" s="6"/>
@@ -3467,15 +3451,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
+      <c r="B9" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
       <c r="I9" s="15"/>
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
@@ -3483,15 +3467,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
+      <c r="B10" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
       <c r="I10" s="33"/>
       <c r="J10" s="2"/>
       <c r="K10" s="6"/>
@@ -3499,15 +3483,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
+      <c r="B11" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
       <c r="I11" s="50"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -3518,53 +3502,53 @@
       <c r="A13" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="71"/>
+      <c r="B13" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="107"/>
       <c r="I13" s="55" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="102"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="106"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="56"/>
       <c r="J14" s="4"/>
       <c r="K14" s="6"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A15" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="106"/>
+      <c r="A15" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="110"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
       <c r="I15" s="58"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
@@ -3572,390 +3556,411 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="90"/>
+      <c r="B16" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="2"/>
       <c r="K16" s="6"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="90"/>
+      <c r="B17" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="67"/>
       <c r="J17" s="2"/>
       <c r="K17" s="6"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="90"/>
+      <c r="B18" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="2"/>
       <c r="K18" s="6"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="90"/>
+      <c r="B19" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="67"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="90"/>
+      <c r="B20" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="90"/>
+      <c r="B21" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="90"/>
+      <c r="B22" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="90"/>
+      <c r="B23" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="90"/>
+      <c r="B24" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="101"/>
+      <c r="B25" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="101"/>
+      <c r="B26" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="72"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="84"/>
+      <c r="B27" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="90"/>
+      <c r="B28" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="90"/>
+      <c r="B29" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="67"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="90"/>
+      <c r="B30" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="90"/>
+      <c r="B31" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="67"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="90"/>
+      <c r="B32" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="90"/>
+      <c r="B33" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="67"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="90"/>
+      <c r="B34" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="90"/>
+      <c r="B35" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="67"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="90"/>
+      <c r="B36" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="90"/>
+      <c r="B37" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="90"/>
+      <c r="B38" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="90"/>
+      <c r="B39" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="67"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
       <c r="L39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B3:H3"/>
@@ -3972,27 +3977,6 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4022,62 +4006,62 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="115" t="s">
-        <v>21</v>
+      <c r="B2" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="79" t="s">
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
+      <c r="A4" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="26"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -4085,15 +4069,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
+      <c r="B5" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
       <c r="I5" s="53"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -4101,15 +4085,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="B6" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
       <c r="I6" s="53"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -4117,15 +4101,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="B7" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
       <c r="I7" s="53"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -4133,15 +4117,15 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="B8" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
       <c r="I8" s="11"/>
       <c r="J8" s="2"/>
       <c r="K8" s="6"/>
@@ -4149,15 +4133,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
+      <c r="B9" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
@@ -4165,15 +4149,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
+      <c r="B10" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="39"/>
       <c r="J10" s="2"/>
       <c r="K10" s="6"/>
@@ -4181,15 +4165,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="B11" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="11"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -4197,15 +4181,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="B12" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
       <c r="I12" s="39"/>
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
@@ -4213,15 +4197,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="B13" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
       <c r="I13" s="11"/>
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
@@ -4229,15 +4213,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
+      <c r="B14" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
       <c r="I14" s="33"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
@@ -4245,15 +4229,15 @@
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="B15" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
       <c r="I15" s="33"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
@@ -4264,53 +4248,53 @@
       <c r="A17" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
+      <c r="B17" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="107"/>
       <c r="I17" s="55" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="102"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
       <c r="I18" s="56"/>
       <c r="J18" s="4"/>
       <c r="K18" s="6"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A19" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="106"/>
+      <c r="A19" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="110"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
       <c r="I19" s="58"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
@@ -4318,390 +4302,415 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="90"/>
+      <c r="B20" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="90"/>
+      <c r="B21" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="90"/>
+      <c r="B22" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="90"/>
+      <c r="B23" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="90"/>
+      <c r="B24" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="90"/>
+      <c r="B25" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="90"/>
+      <c r="B26" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="90"/>
+      <c r="B27" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="90"/>
+      <c r="B28" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="101"/>
+      <c r="B29" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="101"/>
+      <c r="B30" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="84"/>
+      <c r="B31" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="61"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="90"/>
+      <c r="B32" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="90"/>
+      <c r="B33" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="67"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="90"/>
+      <c r="B34" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="90"/>
+      <c r="B35" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="67"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="90"/>
+      <c r="B36" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="90"/>
+      <c r="B37" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="90"/>
+      <c r="B38" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="90"/>
+      <c r="B39" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="67"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="90"/>
+      <c r="B40" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="90"/>
+      <c r="B41" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="90"/>
+      <c r="B42" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="67"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="90"/>
+      <c r="B43" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="67"/>
       <c r="J43" s="2"/>
       <c r="K43" s="6"/>
       <c r="L43" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B42:H42"/>
@@ -4718,31 +4727,6 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4758,10 +4742,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4774,76 +4758,76 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="102"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
+      <c r="A4" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
       <c r="I4" s="20"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
+      <c r="B5" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="17"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4851,15 +4835,15 @@
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
+      <c r="B6" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
       <c r="I6" s="17"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -4867,15 +4851,15 @@
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="B7" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="17"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -4883,15 +4867,15 @@
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65"/>
+      <c r="B8" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
       <c r="I8" s="13"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -4899,15 +4883,15 @@
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="B9" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
       <c r="I9" s="17"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -4915,424 +4899,337 @@
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="17"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="63" t="s">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="73"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="9"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="9"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
+      <c r="B15" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
       <c r="I15" s="17"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="73"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="102"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="2"/>
+      <c r="B18" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="2"/>
+      <c r="B21" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="10"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="28"/>
+      <c r="B24" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="10"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="28"/>
+      <c r="B25" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="24"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="B26" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A27" s="120"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="63" t="s">
+    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="9"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
+  <mergeCells count="27">
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
     <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22:K26 J15:K18 J29:K33 J5:K12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:K28 J5:K10 J13:K15 J19:K21">
       <formula1>$M$3:$M$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -5343,10 +5240,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H35"/>
+      <selection activeCell="B28" sqref="B28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5356,76 +5253,76 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="102"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117"/>
+      <c r="A4" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="20"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
+      <c r="B5" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
       <c r="I5" s="28"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -5433,15 +5330,15 @@
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
+      <c r="B6" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="85"/>
       <c r="I6" s="28"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -5449,15 +5346,15 @@
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
+      <c r="B7" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
       <c r="I7" s="28"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -5465,15 +5362,15 @@
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
+      <c r="B8" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="85"/>
       <c r="I8" s="28"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -5481,15 +5378,15 @@
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
+      <c r="B9" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="85"/>
       <c r="I9" s="28"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -5497,439 +5394,307 @@
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
+      <c r="B10" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="28"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="60" t="s">
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A13" s="120"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="73"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="24"/>
+      <c r="B17" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
+      <c r="B18" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
       <c r="I18" s="17"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="102"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="73"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
+      <c r="B23" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="28"/>
+      <c r="B24" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="B25" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="B26" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="102"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
+  <mergeCells count="27">
     <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
@@ -5939,14 +5704,27 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
     <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:K26 J30:K35 J15:K18 J5:K12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:K10 J13:K14 J17:K20 J24:K28">
       <formula1>$M$3:$M$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -5959,7 +5737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
@@ -5973,140 +5751,140 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
       <c r="I2" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="A4" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="26"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
+      <c r="A5" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
       <c r="I5" s="12"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
+      <c r="A6" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
       <c r="I6" s="12"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="A7" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="13"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="A8" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
       <c r="I8" s="12"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="A9" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
       <c r="I9" s="23"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -6138,7 +5916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -6150,172 +5928,172 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
       <c r="I2" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="A4" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="26"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
+      <c r="A5" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
       <c r="I5" s="26"/>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
+      <c r="A6" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="85"/>
       <c r="I6" s="26"/>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
+      <c r="A7" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
       <c r="I7" s="58"/>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
+      <c r="A8" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="85"/>
       <c r="I8" s="58"/>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
+      <c r="A9" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="85"/>
       <c r="I9" s="58"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
+      <c r="A10" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
       <c r="I10" s="12"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
+      <c r="A11" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
       <c r="I11" s="12"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -6324,16 +6102,16 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A12" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
+      <c r="A12" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
       <c r="I12" s="16"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -6342,16 +6120,16 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
+      <c r="A13" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="19"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -6360,32 +6138,32 @@
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
+      <c r="A14" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="16"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
+      <c r="A15" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="19"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -6393,6 +6171,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -6402,11 +6185,6 @@
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6441,59 +6219,59 @@
       <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="B2" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
       <c r="I2" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="102"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="100"/>
+      <c r="A4" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="114"/>
       <c r="I4" s="14"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -6501,15 +6279,15 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
+      <c r="B5" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
       <c r="I5" s="52"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -6517,15 +6295,15 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="84"/>
+      <c r="B6" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
       <c r="I6" s="52"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -6533,15 +6311,15 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
+      <c r="B7" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="52"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -6549,15 +6327,15 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="82" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="B8" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
       <c r="I8" s="52"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -6565,15 +6343,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
+      <c r="B9" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
@@ -6581,15 +6359,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="88" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="90"/>
+      <c r="B10" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
       <c r="I10" s="17"/>
       <c r="J10" s="2"/>
       <c r="K10" s="6"/>
@@ -6597,15 +6375,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="90"/>
+      <c r="B11" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="24"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -6613,15 +6391,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90"/>
+      <c r="B12" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="24"/>
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
@@ -6629,15 +6407,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="88" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
+      <c r="B13" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="24"/>
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
@@ -6645,15 +6423,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
+      <c r="B14" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
       <c r="I14" s="24"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
@@ -6661,15 +6439,15 @@
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
+      <c r="B15" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
       <c r="I15" s="13"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
@@ -6677,15 +6455,15 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
+      <c r="B16" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="13"/>
       <c r="J16" s="2"/>
       <c r="K16" s="6"/>
@@ -6693,15 +6471,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
+      <c r="B17" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="13"/>
       <c r="J17" s="2"/>
       <c r="K17" s="6"/>
@@ -6709,15 +6487,15 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="90"/>
+      <c r="B18" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="13"/>
       <c r="J18" s="2"/>
       <c r="K18" s="6"/>
@@ -6725,15 +6503,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
       <c r="I19" s="15"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
@@ -6741,15 +6519,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="87"/>
+      <c r="B20" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
       <c r="I20" s="34"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
@@ -6760,53 +6538,53 @@
       <c r="A22" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="71"/>
+      <c r="B22" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="107"/>
       <c r="I22" s="35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="102"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="106"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
       <c r="I23" s="36"/>
       <c r="J23" s="4"/>
       <c r="K23" s="6"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A24" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="106"/>
+      <c r="A24" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="110"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
       <c r="I24" s="37"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
@@ -6814,390 +6592,405 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="90"/>
+      <c r="B25" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="90"/>
+      <c r="B26" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="90"/>
+      <c r="B27" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="90"/>
+      <c r="B28" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="90"/>
+      <c r="B29" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="67"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="90"/>
+      <c r="B30" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="90"/>
+      <c r="B31" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="67"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="90"/>
+      <c r="B32" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="90"/>
+      <c r="B33" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="67"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="101"/>
+      <c r="B34" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="101"/>
+      <c r="B35" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="72"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="84"/>
+      <c r="B36" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="61"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="90"/>
+      <c r="B37" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
       <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="90"/>
+      <c r="B38" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="90"/>
+      <c r="B39" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="67"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="90"/>
+      <c r="B40" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="90"/>
+      <c r="B41" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="90"/>
+      <c r="B42" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="67"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="90"/>
+      <c r="B43" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="67"/>
       <c r="J43" s="2"/>
       <c r="K43" s="6"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="90"/>
+      <c r="B44" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="2"/>
       <c r="K44" s="6"/>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-      <c r="B45" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="90"/>
+      <c r="B45" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="67"/>
       <c r="J45" s="2"/>
       <c r="K45" s="6"/>
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="90"/>
+      <c r="B46" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="2"/>
       <c r="K46" s="6"/>
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
-      <c r="B47" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="90"/>
+      <c r="B47" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="67"/>
       <c r="J47" s="2"/>
       <c r="K47" s="6"/>
       <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
-      <c r="B48" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="90"/>
+      <c r="B48" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="67"/>
       <c r="J48" s="2"/>
       <c r="K48" s="6"/>
       <c r="L48" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B23:H23"/>
@@ -7214,21 +7007,6 @@
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7258,62 +7036,62 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
+      <c r="B2" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
       <c r="I2" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
+      <c r="A4" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="26"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -7321,15 +7099,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="79" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="B5" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="49"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6"/>
@@ -7337,15 +7115,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="79" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
+      <c r="B6" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
       <c r="I6" s="47"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6"/>
@@ -7353,15 +7131,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
+      <c r="B7" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
       <c r="I7" s="47"/>
       <c r="J7" s="2"/>
       <c r="K7" s="6"/>
@@ -7369,15 +7147,15 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
+      <c r="B8" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
       <c r="I8" s="49"/>
       <c r="J8" s="2"/>
       <c r="K8" s="6"/>
@@ -7385,15 +7163,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
+      <c r="B9" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
       <c r="I9" s="49"/>
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
@@ -7401,15 +7179,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
+      <c r="B10" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
       <c r="I10" s="47"/>
       <c r="J10" s="2"/>
       <c r="K10" s="6"/>
@@ -7417,15 +7195,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
+      <c r="B11" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
       <c r="I11" s="49"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -7433,15 +7211,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
+      <c r="B12" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
       <c r="I12" s="49"/>
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
@@ -7449,15 +7227,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
+      <c r="B13" s="120" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
       <c r="I13" s="49"/>
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
@@ -7465,15 +7243,15 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
+      <c r="B14" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
       <c r="I14" s="27"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
@@ -7481,15 +7259,15 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
+      <c r="B15" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
       <c r="I15" s="31"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
@@ -7497,15 +7275,15 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="B16" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
       <c r="I16" s="15"/>
       <c r="J16" s="2"/>
       <c r="K16" s="6"/>
@@ -7513,15 +7291,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="B17" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
       <c r="I17" s="15"/>
       <c r="J17" s="2"/>
       <c r="K17" s="6"/>
@@ -7545,53 +7323,53 @@
       <c r="A19" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="71"/>
+      <c r="B19" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="107"/>
       <c r="I19" s="55" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="102"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
       <c r="I20" s="56"/>
       <c r="J20" s="4"/>
       <c r="K20" s="6"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A21" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="106"/>
+      <c r="A21" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="110"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
       <c r="I21" s="58"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
@@ -7599,390 +7377,417 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="90"/>
+      <c r="B22" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="90"/>
+      <c r="B23" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="90"/>
+      <c r="B24" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="90"/>
+      <c r="B25" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="90"/>
+      <c r="B26" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="90"/>
+      <c r="B27" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="90"/>
+      <c r="B28" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="90"/>
+      <c r="B29" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="67"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="90"/>
+      <c r="B30" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="101"/>
+      <c r="B31" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="101"/>
+      <c r="B32" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="84"/>
+      <c r="B33" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="61"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="90"/>
+      <c r="B34" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
       <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="90"/>
+      <c r="B35" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="67"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="90"/>
+      <c r="B36" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="90"/>
+      <c r="B37" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="90"/>
+      <c r="B38" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="90"/>
+      <c r="B39" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="67"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="90"/>
+      <c r="B40" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="90"/>
+      <c r="B41" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="90"/>
+      <c r="B42" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="67"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="90"/>
+      <c r="B43" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="67"/>
       <c r="J43" s="2"/>
       <c r="K43" s="6"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="90"/>
+      <c r="B44" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="2"/>
       <c r="K44" s="6"/>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-      <c r="B45" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="90"/>
+      <c r="B45" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="67"/>
       <c r="J45" s="2"/>
       <c r="K45" s="6"/>
       <c r="L45" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
     <mergeCell ref="B45:H45"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -7999,33 +7804,6 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -8057,59 +7835,59 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="115" t="s">
-        <v>21</v>
+      <c r="B2" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="79" t="s">
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
+      <c r="A4" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
       <c r="H4" s="25"/>
       <c r="I4" s="4"/>
       <c r="J4" s="6"/>
@@ -8117,14 +7895,14 @@
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="B5" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="53"/>
       <c r="I5" s="4"/>
       <c r="J5" s="6"/>
@@ -8132,14 +7910,14 @@
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
+      <c r="B6" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="53"/>
       <c r="I6" s="4"/>
       <c r="J6" s="6"/>
@@ -8147,14 +7925,14 @@
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
+      <c r="B7" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="53"/>
       <c r="I7" s="4"/>
       <c r="J7" s="6"/>
@@ -8162,14 +7940,14 @@
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
+      <c r="B8" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
       <c r="H8" s="53"/>
       <c r="I8" s="4"/>
       <c r="J8" s="6"/>
@@ -8177,14 +7955,14 @@
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
+      <c r="B9" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
       <c r="H9" s="53"/>
       <c r="I9" s="4"/>
       <c r="J9" s="6"/>
@@ -8192,14 +7970,14 @@
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
+      <c r="B10" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
       <c r="H10" s="53"/>
       <c r="I10" s="4"/>
       <c r="J10" s="6"/>
@@ -8207,14 +7985,14 @@
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
+      <c r="B11" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
       <c r="H11" s="11"/>
       <c r="I11" s="2"/>
       <c r="J11" s="6"/>
@@ -8222,14 +8000,14 @@
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
+      <c r="B12" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
       <c r="H12" s="32"/>
       <c r="I12" s="2"/>
       <c r="J12" s="6"/>
@@ -8237,14 +8015,14 @@
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
+      <c r="B13" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="11"/>
       <c r="I13" s="2"/>
       <c r="J13" s="6"/>
@@ -8252,14 +8030,14 @@
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
+      <c r="B14" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="11"/>
       <c r="I14" s="2"/>
       <c r="J14" s="6"/>
@@ -8267,14 +8045,14 @@
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
+      <c r="B15" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
       <c r="H15" s="32"/>
       <c r="I15" s="2"/>
       <c r="J15" s="6"/>
@@ -8282,14 +8060,14 @@
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
+      <c r="B16" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="32"/>
       <c r="I16" s="2"/>
       <c r="J16" s="6"/>
@@ -8297,14 +8075,14 @@
     </row>
     <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
+      <c r="B17" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="57"/>
       <c r="I17" s="2"/>
       <c r="J17" s="6"/>
@@ -8312,14 +8090,14 @@
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
+      <c r="B18" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
       <c r="H18" s="57"/>
       <c r="I18" s="2"/>
       <c r="J18" s="6"/>
@@ -8330,50 +8108,50 @@
       <c r="A20" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
+      <c r="B20" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
       <c r="H20" s="55" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="102"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
       <c r="H21" s="56"/>
       <c r="I21" s="4"/>
       <c r="J21" s="6"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A22" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
+      <c r="A22" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
       <c r="H22" s="58"/>
       <c r="I22" s="2"/>
       <c r="J22" s="6"/>
@@ -8381,366 +8159,394 @@
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="90"/>
+      <c r="B23" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="2"/>
       <c r="J23" s="6"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="90"/>
+      <c r="B24" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="2"/>
       <c r="J24" s="6"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="90"/>
+      <c r="B25" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="2"/>
       <c r="J25" s="6"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="90"/>
+      <c r="B26" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="2"/>
       <c r="J26" s="6"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="90"/>
+      <c r="B27" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="2"/>
       <c r="J27" s="6"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="90"/>
+      <c r="B28" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="2"/>
       <c r="J28" s="6"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="90"/>
+      <c r="B29" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="2"/>
       <c r="J29" s="6"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="90"/>
+      <c r="B30" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="2"/>
       <c r="J30" s="6"/>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="90"/>
+      <c r="B31" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="2"/>
       <c r="J31" s="6"/>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="101"/>
+      <c r="B32" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="72"/>
       <c r="I32" s="2"/>
       <c r="J32" s="6"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="101"/>
+      <c r="B33" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="72"/>
       <c r="I33" s="2"/>
       <c r="J33" s="6"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="84"/>
+      <c r="B34" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="2"/>
       <c r="J34" s="6"/>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="90"/>
+      <c r="B35" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="67"/>
       <c r="I35" s="2"/>
       <c r="J35" s="6"/>
       <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="90"/>
+      <c r="B36" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="2"/>
       <c r="J36" s="6"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="90"/>
+      <c r="B37" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="67"/>
       <c r="I37" s="2"/>
       <c r="J37" s="6"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="90"/>
+      <c r="B38" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="67"/>
       <c r="I38" s="2"/>
       <c r="J38" s="6"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="90"/>
+      <c r="B39" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="67"/>
       <c r="I39" s="2"/>
       <c r="J39" s="6"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="90"/>
+      <c r="B40" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="67"/>
       <c r="I40" s="2"/>
       <c r="J40" s="6"/>
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="90"/>
+      <c r="B41" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="67"/>
       <c r="I41" s="2"/>
       <c r="J41" s="6"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="90"/>
+      <c r="B42" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="67"/>
       <c r="I42" s="2"/>
       <c r="J42" s="6"/>
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="90"/>
+      <c r="B43" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="67"/>
       <c r="I43" s="2"/>
       <c r="J43" s="6"/>
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="90"/>
+      <c r="B44" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="67"/>
       <c r="I44" s="2"/>
       <c r="J44" s="6"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-      <c r="B45" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="90"/>
+      <c r="B45" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="67"/>
       <c r="I45" s="2"/>
       <c r="J45" s="6"/>
       <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="90"/>
+      <c r="B46" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="67"/>
       <c r="I46" s="2"/>
       <c r="J46" s="6"/>
       <c r="K46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B20:G20"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B45:G45"/>
@@ -8757,34 +8563,6 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -8819,60 +8597,60 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="115" t="s">
-        <v>21</v>
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="79" t="s">
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
+      <c r="A4" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -8880,15 +8658,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
+      <c r="B5" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
       <c r="I5" s="53"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6"/>
@@ -8896,15 +8674,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="B6" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
       <c r="I6" s="53"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6"/>
@@ -8912,15 +8690,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="B7" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
       <c r="I7" s="53"/>
       <c r="J7" s="2"/>
       <c r="K7" s="6"/>
@@ -8928,15 +8706,15 @@
     </row>
     <row r="8" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
-      <c r="B8" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="B8" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
       <c r="I8" s="32"/>
       <c r="J8" s="2"/>
       <c r="K8" s="44"/>
@@ -8944,15 +8722,15 @@
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
-      <c r="B9" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
+      <c r="B9" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
       <c r="I9" s="32"/>
       <c r="J9" s="2"/>
       <c r="K9" s="44"/>
@@ -8960,15 +8738,15 @@
     </row>
     <row r="10" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="44"/>
-      <c r="B10" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
+      <c r="B10" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="48"/>
       <c r="J10" s="2"/>
       <c r="K10" s="44"/>
@@ -8976,15 +8754,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="B11" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="15"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -8992,15 +8770,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
+      <c r="B12" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
       <c r="I12" s="12"/>
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
@@ -9008,15 +8786,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
+      <c r="B13" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
       <c r="I13" s="13"/>
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
@@ -9024,15 +8802,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
+      <c r="B14" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
       <c r="I14" s="33"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
@@ -9043,53 +8821,53 @@
       <c r="A16" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
+      <c r="B16" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="107"/>
       <c r="I16" s="55" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="102"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="56"/>
       <c r="J17" s="4"/>
       <c r="K17" s="6"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A18" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
+      <c r="A18" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="110"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
       <c r="I18" s="58"/>
       <c r="J18" s="2"/>
       <c r="K18" s="6"/>
@@ -9097,390 +8875,414 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="90"/>
+      <c r="B19" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="67"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="90"/>
+      <c r="B20" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="90"/>
+      <c r="B21" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="90"/>
+      <c r="B22" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="90"/>
+      <c r="B23" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="90"/>
+      <c r="B24" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="90"/>
+      <c r="B25" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="90"/>
+      <c r="B26" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="90"/>
+      <c r="B27" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="101"/>
+      <c r="B28" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="72"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="101"/>
+      <c r="B29" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="84"/>
+      <c r="B30" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="90"/>
+      <c r="B31" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="67"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="90"/>
+      <c r="B32" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="90"/>
+      <c r="B33" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="67"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="90"/>
+      <c r="B34" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="90"/>
+      <c r="B35" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="67"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="90"/>
+      <c r="B36" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="90"/>
+      <c r="B37" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="90"/>
+      <c r="B38" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="90"/>
+      <c r="B39" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="67"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="90"/>
+      <c r="B40" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="90"/>
+      <c r="B41" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="90"/>
+      <c r="B42" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="67"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
       <c r="L42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
@@ -9497,30 +9299,6 @@
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">

--- a/docment/テスト項目関連/テスト項目書.xlsx
+++ b/docment/テスト項目関連/テスト項目書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="396" windowWidth="22056" windowHeight="8664" tabRatio="603" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="396" windowWidth="22056" windowHeight="8664" tabRatio="603" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="159">
   <si>
     <t>確認項目</t>
     <rPh sb="0" eb="2">
@@ -418,22 +418,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームオーバー条件を満たしたら、ゲームオーバー画面が出るか？</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クリア条件を満たしたら、クリア画面が出るか？</t>
     <rPh sb="3" eb="5">
       <t>ジョウケン</t>
@@ -2026,6 +2010,44 @@
   </si>
   <si>
     <t>テキストは指定どおりの表示がされているか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全データ削除ボタンを押したとき削除モーダルが表示されるか？</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全データ削除を行ったとき王冠が非表示</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ヒヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2364,7 +2386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2621,6 +2643,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2630,6 +2655,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2645,19 +2685,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2666,12 +2697,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2702,20 +2727,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3055,16 +3080,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="C1" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="D1" s="82" t="s">
         <v>151</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
@@ -3309,10 +3334,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:H8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3327,23 +3352,23 @@
       <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
+      <c r="B2" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="79" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="79" t="s">
         <v>16</v>
@@ -3354,13 +3379,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="77"/>
       <c r="J3" s="78"/>
       <c r="K3" s="78"/>
@@ -3371,15 +3396,15 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
+        <v>47</v>
+      </c>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
       <c r="I4" s="19"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -3387,15 +3412,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
+      <c r="B5" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
       <c r="I5" s="15"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6"/>
@@ -3403,15 +3428,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="104" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
+      <c r="B6" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
       <c r="I6" s="51"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6"/>
@@ -3419,15 +3444,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="104" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
+      <c r="B7" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
       <c r="I7" s="38"/>
       <c r="J7" s="2"/>
       <c r="K7" s="6"/>
@@ -3435,15 +3460,15 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
+      <c r="B8" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="34"/>
       <c r="J8" s="2"/>
       <c r="K8" s="6"/>
@@ -3451,15 +3476,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
+      <c r="B9" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="15"/>
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
@@ -3467,15 +3492,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
+      <c r="B10" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
       <c r="I10" s="33"/>
       <c r="J10" s="2"/>
       <c r="K10" s="6"/>
@@ -3483,15 +3508,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
+      <c r="B11" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
       <c r="I11" s="50"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -3502,23 +3527,23 @@
       <c r="A13" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="105" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="107"/>
+      <c r="B13" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="108"/>
       <c r="I13" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>16</v>
@@ -3526,13 +3551,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="73"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="102"/>
       <c r="I14" s="56"/>
       <c r="J14" s="4"/>
       <c r="K14" s="6"/>
@@ -3542,13 +3567,13 @@
       <c r="A15" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="58"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
@@ -3556,15 +3581,15 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="104" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
+      <c r="B16" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
       <c r="I16" s="67"/>
       <c r="J16" s="2"/>
       <c r="K16" s="6"/>
@@ -3572,15 +3597,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
+      <c r="B17" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
       <c r="I17" s="67"/>
       <c r="J17" s="2"/>
       <c r="K17" s="6"/>
@@ -3588,15 +3613,15 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
+      <c r="B18" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
       <c r="I18" s="67"/>
       <c r="J18" s="2"/>
       <c r="K18" s="6"/>
@@ -3604,15 +3629,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
+      <c r="B19" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
       <c r="I19" s="67"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
@@ -3620,15 +3645,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
+      <c r="B20" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
       <c r="I20" s="67"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
@@ -3636,15 +3661,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
+      <c r="B21" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
       <c r="I21" s="67"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
@@ -3652,15 +3677,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
       <c r="I22" s="67"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
@@ -3668,15 +3693,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
       <c r="I23" s="67"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -3684,15 +3709,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
       <c r="I24" s="67"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
@@ -3700,15 +3725,15 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="72"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
@@ -3716,15 +3741,15 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
+      <c r="B26" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="72"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
@@ -3732,15 +3757,15 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
       <c r="I27" s="61"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
@@ -3748,15 +3773,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
       <c r="I28" s="67"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
@@ -3764,15 +3789,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
       <c r="I29" s="67"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
@@ -3780,15 +3805,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
+      <c r="B30" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
       <c r="I30" s="67"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
@@ -3796,15 +3821,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
+      <c r="B31" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
       <c r="I31" s="67"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
@@ -3812,15 +3837,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
+      <c r="B32" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
       <c r="I32" s="67"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
@@ -3828,15 +3853,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
+      <c r="B33" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
       <c r="I33" s="67"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
@@ -3844,15 +3869,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
+      <c r="B34" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
       <c r="I34" s="67"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
@@ -3860,15 +3885,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="104" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
+      <c r="B35" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="67"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
@@ -3876,15 +3901,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
+      <c r="B36" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
       <c r="I36" s="67"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
@@ -3892,15 +3917,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
+      <c r="B37" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
@@ -3908,61 +3933,24 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
+      <c r="B38" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="104" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
+  <mergeCells count="36">
     <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:H4"/>
@@ -3977,10 +3965,30 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J11 J15:J39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J11 J15:J38">
       <formula1>$M$2:$M$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -3991,10 +3999,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H13"/>
+      <selection activeCell="B42" sqref="B42:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4009,23 +4017,23 @@
       <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
+      <c r="B2" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="79" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="79" t="s">
         <v>16</v>
@@ -4036,13 +4044,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="77"/>
       <c r="J3" s="78"/>
       <c r="K3" s="78"/>
@@ -4053,15 +4061,15 @@
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
+        <v>46</v>
+      </c>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="26"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -4069,15 +4077,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
+      <c r="B5" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="53"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -4085,15 +4093,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
+      <c r="B6" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
       <c r="I6" s="53"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -4101,15 +4109,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
+      <c r="B7" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="53"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -4117,15 +4125,15 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
+      <c r="B8" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="11"/>
       <c r="J8" s="2"/>
       <c r="K8" s="6"/>
@@ -4133,15 +4141,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
+      <c r="B9" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
@@ -4149,15 +4157,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
+      <c r="B10" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="39"/>
       <c r="J10" s="2"/>
       <c r="K10" s="6"/>
@@ -4165,15 +4173,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
+      <c r="B11" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="11"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -4181,15 +4189,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
+      <c r="B12" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
       <c r="I12" s="39"/>
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
@@ -4197,15 +4205,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="B13" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="11"/>
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
@@ -4213,15 +4221,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="33"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
@@ -4229,15 +4237,15 @@
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
+      <c r="B15" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
       <c r="I15" s="33"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
@@ -4248,23 +4256,23 @@
       <c r="A17" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="105" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="107"/>
+      <c r="B17" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="108"/>
       <c r="I17" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>16</v>
@@ -4272,13 +4280,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="73"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="101"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="102"/>
       <c r="I18" s="56"/>
       <c r="J18" s="4"/>
       <c r="K18" s="6"/>
@@ -4288,13 +4296,13 @@
       <c r="A19" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="101"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="102"/>
       <c r="I19" s="58"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
@@ -4302,15 +4310,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="104" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
+      <c r="B20" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
       <c r="I20" s="67"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
@@ -4318,15 +4326,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
+      <c r="B21" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
       <c r="I21" s="67"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
@@ -4334,15 +4342,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
+      <c r="B22" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
       <c r="I22" s="67"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
@@ -4350,15 +4358,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
+      <c r="B23" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
       <c r="I23" s="67"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -4366,15 +4374,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
+      <c r="B24" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
       <c r="I24" s="67"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
@@ -4382,15 +4390,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
+      <c r="B25" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="67"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
@@ -4398,15 +4406,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
       <c r="I26" s="67"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
@@ -4414,15 +4422,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
       <c r="I27" s="67"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
@@ -4430,15 +4438,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
       <c r="I28" s="67"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
@@ -4446,15 +4454,15 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="72"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
@@ -4462,15 +4470,15 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
+      <c r="B30" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
       <c r="I30" s="72"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
@@ -4478,15 +4486,15 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
       <c r="I31" s="61"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
@@ -4494,15 +4502,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
       <c r="I32" s="67"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
@@ -4510,15 +4518,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
       <c r="I33" s="67"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
@@ -4526,15 +4534,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
+      <c r="B34" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
       <c r="I34" s="67"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
@@ -4542,15 +4550,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
+      <c r="B35" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="67"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
@@ -4558,15 +4566,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
+      <c r="B36" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
       <c r="I36" s="67"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
@@ -4574,15 +4582,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
+      <c r="B37" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
@@ -4590,15 +4598,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
+      <c r="B38" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
@@ -4606,15 +4614,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="104" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
+      <c r="B39" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="67"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
@@ -4622,15 +4630,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
+      <c r="B40" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
       <c r="I40" s="67"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
@@ -4638,15 +4646,15 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
+      <c r="B41" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
       <c r="I41" s="67"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
@@ -4654,47 +4662,38 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
+      <c r="B42" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
       <c r="I42" s="67"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="104" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
+  <mergeCells count="40">
+    <mergeCell ref="B15:H15"/>
     <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B37:H37"/>
@@ -4711,26 +4710,18 @@
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J15 J19:J43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J15 J19:J42">
       <formula1>$M$2:$M$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -4761,21 +4752,21 @@
       <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
       <c r="I2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
@@ -4783,13 +4774,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -4802,13 +4793,13 @@
       <c r="A4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
       <c r="I4" s="20"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -4819,15 +4810,15 @@
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
+      <c r="B5" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
       <c r="I5" s="17"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4835,15 +4826,15 @@
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
+      <c r="B6" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
       <c r="I6" s="17"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -4851,15 +4842,15 @@
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
+      <c r="B7" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="17"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -4867,15 +4858,15 @@
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="88"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
       <c r="I8" s="13"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -4883,15 +4874,15 @@
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
+      <c r="B9" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
       <c r="I9" s="17"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -4899,15 +4890,15 @@
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
       <c r="I10" s="17"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -4917,13 +4908,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="73"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -4933,13 +4924,13 @@
       <c r="A12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
       <c r="I12" s="14"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -4947,15 +4938,15 @@
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="88"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
       <c r="I13" s="17"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4963,15 +4954,15 @@
     </row>
     <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
       <c r="I14" s="24"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4979,15 +4970,15 @@
     </row>
     <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94"/>
       <c r="I15" s="17"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4995,13 +4986,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="73"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -5011,13 +5002,13 @@
       <c r="A17" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="14"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -5025,15 +5016,15 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="30"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
@@ -5041,15 +5032,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="88"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
       <c r="I19" s="17"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -5057,15 +5048,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="28"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -5073,15 +5064,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
       <c r="I21" s="15"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -5089,13 +5080,13 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="81"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
       <c r="I22" s="11"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -5103,15 +5094,15 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
+        <v>132</v>
+      </c>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
       <c r="I23" s="14"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -5119,15 +5110,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="88"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
       <c r="I24" s="17"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -5135,15 +5126,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="88"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="94"/>
       <c r="I25" s="24"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -5151,15 +5142,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="88"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94"/>
       <c r="I26" s="17"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -5167,15 +5158,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
       <c r="I27" s="30"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -5183,15 +5174,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="86"/>
       <c r="I28" s="30"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -5199,11 +5190,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B15:H15"/>
@@ -5220,11 +5211,11 @@
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="B26:H26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -5256,21 +5247,21 @@
       <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
       <c r="I2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
@@ -5278,13 +5269,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -5297,13 +5288,13 @@
       <c r="A4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="104"/>
       <c r="I4" s="20"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -5314,15 +5305,15 @@
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="85"/>
+      <c r="B5" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="86"/>
       <c r="I5" s="28"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -5330,15 +5321,15 @@
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85"/>
+      <c r="B6" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86"/>
       <c r="I6" s="28"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -5346,15 +5337,15 @@
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
       <c r="I7" s="28"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -5362,15 +5353,15 @@
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
       <c r="I8" s="28"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -5378,15 +5369,15 @@
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
+      <c r="B9" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="28"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -5394,15 +5385,15 @@
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="28"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -5412,13 +5403,13 @@
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="81"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="86"/>
       <c r="I11" s="21"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -5428,13 +5419,13 @@
       <c r="A12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="98"/>
       <c r="I12" s="14"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -5442,15 +5433,15 @@
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="88"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
       <c r="I13" s="17"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -5458,15 +5449,15 @@
     </row>
     <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
       <c r="I14" s="17"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -5474,13 +5465,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="73"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -5490,13 +5481,13 @@
       <c r="A16" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
       <c r="I16" s="14"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -5504,15 +5495,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
       <c r="I17" s="29"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -5520,15 +5511,15 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94"/>
       <c r="I18" s="17"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -5536,15 +5527,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
       <c r="I19" s="28"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -5552,15 +5543,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="15"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -5568,13 +5559,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="73"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="97"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="100"/>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -5582,15 +5573,15 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99"/>
+        <v>132</v>
+      </c>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
       <c r="I22" s="14"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -5598,15 +5589,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="29"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
@@ -5614,15 +5605,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
       <c r="I24" s="30"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -5630,15 +5621,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
       <c r="I25" s="30"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -5646,15 +5637,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="88"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94"/>
       <c r="I26" s="17"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -5662,15 +5653,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
       <c r="I27" s="30"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -5678,15 +5669,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="86"/>
       <c r="I28" s="30"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -5694,16 +5685,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
@@ -5712,15 +5702,16 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5735,10 +5726,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5751,24 +5742,24 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
       <c r="I2" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
@@ -5778,14 +5769,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="108"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -5795,103 +5786,137 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
+      <c r="A4" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
       <c r="I4" s="26"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
+      <c r="A5" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
       <c r="I5" s="12"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
       <c r="I6" s="12"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
+      <c r="A7" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="13"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
+      <c r="A8" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
       <c r="I8" s="12"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
+      <c r="A9" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
       <c r="I9" s="23"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="9"/>
     </row>
+    <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A10" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A11" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A6:H6"/>
@@ -5903,7 +5928,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:K9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:K11">
       <formula1>$M$2:$M$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -5917,7 +5942,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5928,24 +5953,24 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
       <c r="I2" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
@@ -5955,14 +5980,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="108"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -5972,128 +5997,128 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="109" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
+      <c r="A4" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
       <c r="I4" s="26"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="85"/>
+      <c r="A5" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="86"/>
       <c r="I5" s="26"/>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85"/>
+      <c r="A6" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86"/>
       <c r="I6" s="26"/>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
+      <c r="A7" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
       <c r="I7" s="58"/>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85"/>
+      <c r="A8" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
       <c r="I8" s="58"/>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
+      <c r="A9" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="58"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
       <c r="I10" s="12"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
       <c r="I11" s="12"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -6102,16 +6127,16 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="16"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -6120,16 +6145,16 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A13" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
+      <c r="A13" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="19"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -6138,32 +6163,32 @@
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+      <c r="A14" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="16"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="108" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
+      <c r="A15" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="19"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -6171,11 +6196,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -6185,6 +6205,11 @@
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6199,10 +6224,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6219,23 +6244,23 @@
       <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
+      <c r="B2" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
       <c r="I2" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
@@ -6246,13 +6271,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -6265,13 +6290,13 @@
       <c r="A4" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="114"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="113"/>
       <c r="I4" s="14"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -6280,7 +6305,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
@@ -6296,7 +6321,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="60"/>
       <c r="D6" s="60"/>
@@ -6312,7 +6337,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
@@ -6328,7 +6353,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -6344,7 +6369,7 @@
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="63"/>
       <c r="D9" s="63"/>
@@ -6360,7 +6385,7 @@
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -6376,7 +6401,7 @@
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="66"/>
@@ -6392,7 +6417,7 @@
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="66"/>
@@ -6408,7 +6433,7 @@
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="66"/>
@@ -6423,15 +6448,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88"/>
+      <c r="B14" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
       <c r="I14" s="24"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
@@ -6440,7 +6465,7 @@
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="66"/>
@@ -6456,7 +6481,7 @@
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="66"/>
@@ -6472,7 +6497,7 @@
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="66"/>
@@ -6488,7 +6513,7 @@
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="66"/>
@@ -6504,7 +6529,7 @@
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
@@ -6520,7 +6545,7 @@
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="63"/>
       <c r="D20" s="63"/>
@@ -6538,23 +6563,23 @@
       <c r="A22" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="105" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="107"/>
+      <c r="B22" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="108"/>
       <c r="I22" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>16</v>
@@ -6562,13 +6587,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="73"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="102"/>
       <c r="I23" s="36"/>
       <c r="J23" s="4"/>
       <c r="K23" s="6"/>
@@ -6578,13 +6603,13 @@
       <c r="A24" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="101"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="102"/>
       <c r="I24" s="37"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
@@ -6592,15 +6617,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="104" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
+      <c r="B25" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="67"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
@@ -6608,15 +6633,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
+      <c r="B26" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
       <c r="I26" s="67"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
@@ -6624,15 +6649,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
+      <c r="B27" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
       <c r="I27" s="67"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
@@ -6640,15 +6665,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
+      <c r="B28" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
       <c r="I28" s="67"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
@@ -6656,15 +6681,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
+      <c r="B29" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
       <c r="I29" s="67"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
@@ -6672,15 +6697,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
+      <c r="B30" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
       <c r="I30" s="67"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
@@ -6688,15 +6713,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
       <c r="I31" s="67"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
@@ -6704,15 +6729,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
       <c r="I32" s="67"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
@@ -6720,15 +6745,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
       <c r="I33" s="67"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
@@ -6736,15 +6761,15 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
       <c r="I34" s="72"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
@@ -6752,15 +6777,15 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
+      <c r="B35" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
       <c r="I35" s="72"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
@@ -6768,15 +6793,15 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
       <c r="I36" s="61"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
@@ -6784,15 +6809,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
@@ -6800,15 +6825,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
@@ -6816,15 +6841,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
+      <c r="B39" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="67"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
@@ -6832,15 +6857,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
+      <c r="B40" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
       <c r="I40" s="67"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
@@ -6848,15 +6873,15 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
+      <c r="B41" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
       <c r="I41" s="67"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
@@ -6864,15 +6889,15 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
+      <c r="B42" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
       <c r="I42" s="67"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
@@ -6880,15 +6905,15 @@
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
+      <c r="B43" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
       <c r="I43" s="67"/>
       <c r="J43" s="2"/>
       <c r="K43" s="6"/>
@@ -6896,15 +6921,15 @@
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="104" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
+      <c r="B44" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
       <c r="I44" s="67"/>
       <c r="J44" s="2"/>
       <c r="K44" s="6"/>
@@ -6912,15 +6937,15 @@
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-      <c r="B45" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
+      <c r="B45" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
       <c r="I45" s="67"/>
       <c r="J45" s="2"/>
       <c r="K45" s="6"/>
@@ -6928,15 +6953,15 @@
     </row>
     <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
+      <c r="B46" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
       <c r="I46" s="67"/>
       <c r="J46" s="2"/>
       <c r="K46" s="6"/>
@@ -6944,38 +6969,37 @@
     </row>
     <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
-      <c r="B47" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
+      <c r="B47" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
       <c r="I47" s="67"/>
       <c r="J47" s="2"/>
       <c r="K47" s="6"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="104" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="30">
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B2:H2"/>
@@ -6991,26 +7015,10 @@
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J20 J24:J48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J20 J24:J47">
       <formula1>$M$2:$M$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -7021,10 +7029,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7039,23 +7047,23 @@
       <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
+      <c r="B2" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
@@ -7066,13 +7074,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -7085,13 +7093,13 @@
       <c r="A4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="26"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -7099,15 +7107,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="120" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
+      <c r="B5" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
       <c r="I5" s="49"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6"/>
@@ -7115,15 +7123,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="120" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
+      <c r="B6" s="121" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
       <c r="I6" s="47"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6"/>
@@ -7131,15 +7139,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="120" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
+      <c r="B7" s="121" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
       <c r="I7" s="47"/>
       <c r="J7" s="2"/>
       <c r="K7" s="6"/>
@@ -7147,15 +7155,15 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
+      <c r="B8" s="121" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
       <c r="I8" s="49"/>
       <c r="J8" s="2"/>
       <c r="K8" s="6"/>
@@ -7163,15 +7171,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="120" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
+      <c r="B9" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
       <c r="I9" s="49"/>
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
@@ -7179,15 +7187,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="120" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
+      <c r="B10" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
       <c r="I10" s="47"/>
       <c r="J10" s="2"/>
       <c r="K10" s="6"/>
@@ -7195,15 +7203,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
+      <c r="B11" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
       <c r="I11" s="49"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -7211,15 +7219,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="120" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
+      <c r="B12" s="121" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
       <c r="I12" s="49"/>
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
@@ -7227,15 +7235,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="120" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
+      <c r="B13" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
       <c r="I13" s="49"/>
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
@@ -7243,15 +7251,15 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
       <c r="I14" s="27"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
@@ -7259,15 +7267,15 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
+      <c r="B15" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
       <c r="I15" s="31"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
@@ -7275,15 +7283,15 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="95" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
+      <c r="B16" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="15"/>
       <c r="J16" s="2"/>
       <c r="K16" s="6"/>
@@ -7291,15 +7299,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
+      <c r="B17" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
       <c r="I17" s="15"/>
       <c r="J17" s="2"/>
       <c r="K17" s="6"/>
@@ -7323,23 +7331,23 @@
       <c r="A19" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="105" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="107"/>
+      <c r="B19" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="108"/>
       <c r="I19" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>16</v>
@@ -7347,13 +7355,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="73"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="101"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="102"/>
       <c r="I20" s="56"/>
       <c r="J20" s="4"/>
       <c r="K20" s="6"/>
@@ -7363,13 +7371,13 @@
       <c r="A21" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="101"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="102"/>
       <c r="I21" s="58"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
@@ -7377,15 +7385,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="104" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
+      <c r="B22" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
       <c r="I22" s="67"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
@@ -7393,15 +7401,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
+      <c r="B23" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
       <c r="I23" s="67"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -7409,15 +7417,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
+      <c r="B24" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
       <c r="I24" s="67"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
@@ -7425,15 +7433,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
+      <c r="B25" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="67"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
@@ -7441,15 +7449,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
+      <c r="B26" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
       <c r="I26" s="67"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
@@ -7457,15 +7465,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
+      <c r="B27" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
       <c r="I27" s="67"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
@@ -7473,15 +7481,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
       <c r="I28" s="67"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
@@ -7489,15 +7497,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
       <c r="I29" s="67"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
@@ -7505,15 +7513,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
       <c r="I30" s="67"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
@@ -7521,15 +7529,15 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="72"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
@@ -7537,15 +7545,15 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
+      <c r="B32" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
       <c r="I32" s="72"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
@@ -7553,15 +7561,15 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
       <c r="I33" s="61"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
@@ -7569,15 +7577,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
       <c r="I34" s="67"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
@@ -7585,15 +7593,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="67"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
@@ -7601,15 +7609,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
+      <c r="B36" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
       <c r="I36" s="67"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
@@ -7617,15 +7625,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
+      <c r="B37" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
@@ -7633,15 +7641,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
+      <c r="B38" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
@@ -7649,15 +7657,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
+      <c r="B39" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="67"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
@@ -7665,15 +7673,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
+      <c r="B40" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
       <c r="I40" s="67"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
@@ -7681,15 +7689,15 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="104" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
+      <c r="B41" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
       <c r="I41" s="67"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
@@ -7697,15 +7705,15 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
+      <c r="B42" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
       <c r="I42" s="67"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
@@ -7713,15 +7721,15 @@
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
+      <c r="B43" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
       <c r="I43" s="67"/>
       <c r="J43" s="2"/>
       <c r="K43" s="6"/>
@@ -7729,66 +7737,23 @@
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
+      <c r="B44" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
       <c r="I44" s="67"/>
       <c r="J44" s="2"/>
       <c r="K44" s="6"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="104" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B43:H43"/>
+  <mergeCells count="42">
     <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B45:H45"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
@@ -7804,10 +7769,36 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J18 J21:J45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J18 J21:J44">
       <formula1>$M$2:$M$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -7818,10 +7809,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:G20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7838,22 +7829,22 @@
       <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="B2" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="79" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2" s="79" t="s">
         <v>16</v>
@@ -7864,12 +7855,12 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
       <c r="H3" s="77"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78"/>
@@ -7880,14 +7871,14 @@
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
+        <v>50</v>
+      </c>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
       <c r="H4" s="25"/>
       <c r="I4" s="4"/>
       <c r="J4" s="6"/>
@@ -7895,14 +7886,14 @@
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
+      <c r="B5" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
       <c r="H5" s="53"/>
       <c r="I5" s="4"/>
       <c r="J5" s="6"/>
@@ -7910,14 +7901,14 @@
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
+      <c r="B6" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="53"/>
       <c r="I6" s="4"/>
       <c r="J6" s="6"/>
@@ -7925,14 +7916,14 @@
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
+      <c r="B7" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="53"/>
       <c r="I7" s="4"/>
       <c r="J7" s="6"/>
@@ -7940,14 +7931,14 @@
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
+      <c r="B8" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="53"/>
       <c r="I8" s="4"/>
       <c r="J8" s="6"/>
@@ -7955,14 +7946,14 @@
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="95" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
+      <c r="B9" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
       <c r="H9" s="53"/>
       <c r="I9" s="4"/>
       <c r="J9" s="6"/>
@@ -7970,14 +7961,14 @@
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
+      <c r="B10" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
       <c r="H10" s="53"/>
       <c r="I10" s="4"/>
       <c r="J10" s="6"/>
@@ -7985,14 +7976,14 @@
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
+      <c r="B11" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
       <c r="H11" s="11"/>
       <c r="I11" s="2"/>
       <c r="J11" s="6"/>
@@ -8000,14 +7991,14 @@
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="95" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="B12" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="32"/>
       <c r="I12" s="2"/>
       <c r="J12" s="6"/>
@@ -8015,14 +8006,14 @@
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
+      <c r="B13" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="11"/>
       <c r="I13" s="2"/>
       <c r="J13" s="6"/>
@@ -8030,14 +8021,14 @@
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
+      <c r="B14" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
       <c r="H14" s="11"/>
       <c r="I14" s="2"/>
       <c r="J14" s="6"/>
@@ -8045,14 +8036,14 @@
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
+      <c r="B15" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="32"/>
       <c r="I15" s="2"/>
       <c r="J15" s="6"/>
@@ -8060,14 +8051,14 @@
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
+      <c r="B16" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
       <c r="H16" s="32"/>
       <c r="I16" s="2"/>
       <c r="J16" s="6"/>
@@ -8075,14 +8066,14 @@
     </row>
     <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
+      <c r="B17" s="105" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
       <c r="H17" s="57"/>
       <c r="I17" s="2"/>
       <c r="J17" s="6"/>
@@ -8090,14 +8081,14 @@
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
+      <c r="B18" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
       <c r="H18" s="57"/>
       <c r="I18" s="2"/>
       <c r="J18" s="6"/>
@@ -8108,22 +8099,22 @@
       <c r="A20" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="105" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
+      <c r="B20" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
       <c r="H20" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>16</v>
@@ -8131,12 +8122,12 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="73"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
       <c r="H21" s="56"/>
       <c r="I21" s="4"/>
       <c r="J21" s="6"/>
@@ -8146,12 +8137,12 @@
       <c r="A22" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
       <c r="H22" s="58"/>
       <c r="I22" s="2"/>
       <c r="J22" s="6"/>
@@ -8159,14 +8150,14 @@
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="104" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
+      <c r="B23" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
       <c r="H23" s="67"/>
       <c r="I23" s="2"/>
       <c r="J23" s="6"/>
@@ -8174,14 +8165,14 @@
     </row>
     <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
+      <c r="B24" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
       <c r="H24" s="67"/>
       <c r="I24" s="2"/>
       <c r="J24" s="6"/>
@@ -8189,14 +8180,14 @@
     </row>
     <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
+      <c r="B25" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
       <c r="H25" s="67"/>
       <c r="I25" s="2"/>
       <c r="J25" s="6"/>
@@ -8204,14 +8195,14 @@
     </row>
     <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
+      <c r="B26" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="67"/>
       <c r="I26" s="2"/>
       <c r="J26" s="6"/>
@@ -8219,14 +8210,14 @@
     </row>
     <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
+      <c r="B27" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
       <c r="H27" s="67"/>
       <c r="I27" s="2"/>
       <c r="J27" s="6"/>
@@ -8234,14 +8225,14 @@
     </row>
     <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
+      <c r="B28" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
       <c r="H28" s="67"/>
       <c r="I28" s="2"/>
       <c r="J28" s="6"/>
@@ -8249,14 +8240,14 @@
     </row>
     <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
       <c r="H29" s="67"/>
       <c r="I29" s="2"/>
       <c r="J29" s="6"/>
@@ -8264,14 +8255,14 @@
     </row>
     <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
       <c r="H30" s="67"/>
       <c r="I30" s="2"/>
       <c r="J30" s="6"/>
@@ -8279,14 +8270,14 @@
     </row>
     <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
       <c r="H31" s="67"/>
       <c r="I31" s="2"/>
       <c r="J31" s="6"/>
@@ -8294,14 +8285,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
       <c r="H32" s="72"/>
       <c r="I32" s="2"/>
       <c r="J32" s="6"/>
@@ -8309,14 +8300,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
+      <c r="B33" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
       <c r="H33" s="72"/>
       <c r="I33" s="2"/>
       <c r="J33" s="6"/>
@@ -8324,14 +8315,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
       <c r="H34" s="61"/>
       <c r="I34" s="2"/>
       <c r="J34" s="6"/>
@@ -8339,14 +8330,14 @@
     </row>
     <row r="35" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
       <c r="H35" s="67"/>
       <c r="I35" s="2"/>
       <c r="J35" s="6"/>
@@ -8354,14 +8345,14 @@
     </row>
     <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
       <c r="H36" s="67"/>
       <c r="I36" s="2"/>
       <c r="J36" s="6"/>
@@ -8369,14 +8360,14 @@
     </row>
     <row r="37" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
+      <c r="B37" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
       <c r="H37" s="67"/>
       <c r="I37" s="2"/>
       <c r="J37" s="6"/>
@@ -8384,14 +8375,14 @@
     </row>
     <row r="38" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
+      <c r="B38" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
       <c r="H38" s="67"/>
       <c r="I38" s="2"/>
       <c r="J38" s="6"/>
@@ -8399,14 +8390,14 @@
     </row>
     <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
+      <c r="B39" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
       <c r="H39" s="67"/>
       <c r="I39" s="2"/>
       <c r="J39" s="6"/>
@@ -8414,14 +8405,14 @@
     </row>
     <row r="40" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
+      <c r="B40" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
       <c r="H40" s="67"/>
       <c r="I40" s="2"/>
       <c r="J40" s="6"/>
@@ -8429,14 +8420,14 @@
     </row>
     <row r="41" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
+      <c r="B41" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
       <c r="H41" s="67"/>
       <c r="I41" s="2"/>
       <c r="J41" s="6"/>
@@ -8444,14 +8435,14 @@
     </row>
     <row r="42" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="104" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
+      <c r="B42" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
       <c r="H42" s="67"/>
       <c r="I42" s="2"/>
       <c r="J42" s="6"/>
@@ -8459,14 +8450,14 @@
     </row>
     <row r="43" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
+      <c r="B43" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
       <c r="H43" s="67"/>
       <c r="I43" s="2"/>
       <c r="J43" s="6"/>
@@ -8474,14 +8465,14 @@
     </row>
     <row r="44" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
+      <c r="B44" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
       <c r="H44" s="67"/>
       <c r="I44" s="2"/>
       <c r="J44" s="6"/>
@@ -8489,48 +8480,36 @@
     </row>
     <row r="45" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-      <c r="B45" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
+      <c r="B45" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
       <c r="H45" s="67"/>
       <c r="I45" s="2"/>
       <c r="J45" s="6"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="104" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B43:G43"/>
+  <mergeCells count="43">
+    <mergeCell ref="B3:G3"/>
     <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B40:G40"/>
@@ -8547,26 +8526,22 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I18 I22:I46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I18 I22:I45">
       <formula1>$L$2:$L$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -8577,10 +8552,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8600,21 +8575,21 @@
       <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="79" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="79" t="s">
         <v>16</v>
@@ -8625,13 +8600,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="77"/>
       <c r="J3" s="78"/>
       <c r="K3" s="78"/>
@@ -8644,13 +8619,13 @@
       <c r="A4" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="25"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -8658,15 +8633,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
+      <c r="B5" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="53"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6"/>
@@ -8674,15 +8649,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
+      <c r="B6" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
       <c r="I6" s="53"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6"/>
@@ -8690,15 +8665,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
+      <c r="B7" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="53"/>
       <c r="J7" s="2"/>
       <c r="K7" s="6"/>
@@ -8706,15 +8681,15 @@
     </row>
     <row r="8" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
-      <c r="B8" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
+      <c r="B8" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="32"/>
       <c r="J8" s="2"/>
       <c r="K8" s="44"/>
@@ -8722,15 +8697,15 @@
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
-      <c r="B9" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
+      <c r="B9" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="32"/>
       <c r="J9" s="2"/>
       <c r="K9" s="44"/>
@@ -8738,15 +8713,15 @@
     </row>
     <row r="10" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="44"/>
-      <c r="B10" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
+      <c r="B10" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="48"/>
       <c r="J10" s="2"/>
       <c r="K10" s="44"/>
@@ -8754,15 +8729,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
+      <c r="B11" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="15"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -8770,15 +8745,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
+      <c r="B12" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
       <c r="I12" s="12"/>
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
@@ -8786,15 +8761,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
+      <c r="B13" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
       <c r="I13" s="13"/>
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
@@ -8802,15 +8777,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
+      <c r="B14" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="33"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
@@ -8821,23 +8796,23 @@
       <c r="A16" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="105" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="107"/>
+      <c r="B16" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="108"/>
       <c r="I16" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>16</v>
@@ -8845,13 +8820,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="73"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="101"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="102"/>
       <c r="I17" s="56"/>
       <c r="J17" s="4"/>
       <c r="K17" s="6"/>
@@ -8861,13 +8836,13 @@
       <c r="A18" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="101"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="102"/>
       <c r="I18" s="58"/>
       <c r="J18" s="2"/>
       <c r="K18" s="6"/>
@@ -8875,15 +8850,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="104" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
+      <c r="B19" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
       <c r="I19" s="67"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
@@ -8891,15 +8866,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
+      <c r="B20" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
       <c r="I20" s="67"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
@@ -8907,15 +8882,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
+      <c r="B21" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
       <c r="I21" s="67"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
@@ -8923,15 +8898,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
+      <c r="B22" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
       <c r="I22" s="67"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
@@ -8939,15 +8914,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
+      <c r="B23" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
       <c r="I23" s="67"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -8955,15 +8930,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
+      <c r="B24" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
       <c r="I24" s="67"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
@@ -8971,15 +8946,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="67"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
@@ -8987,15 +8962,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
       <c r="I26" s="67"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
@@ -9003,15 +8978,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
       <c r="I27" s="67"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
@@ -9019,15 +8994,15 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="72"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
@@ -9035,15 +9010,15 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
+      <c r="B29" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="72"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
@@ -9051,15 +9026,15 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
       <c r="I30" s="61"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
@@ -9067,15 +9042,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
       <c r="I31" s="67"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
@@ -9083,15 +9058,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
       <c r="I32" s="67"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
@@ -9099,15 +9074,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
+      <c r="B33" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
       <c r="I33" s="67"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
@@ -9115,15 +9090,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
+      <c r="B34" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
       <c r="I34" s="67"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
@@ -9131,15 +9106,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
+      <c r="B35" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="67"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
@@ -9147,15 +9122,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
+      <c r="B36" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
       <c r="I36" s="67"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
@@ -9163,15 +9138,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
+      <c r="B37" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
@@ -9179,15 +9154,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="104" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
+      <c r="B38" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
@@ -9195,15 +9170,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
+      <c r="B39" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="67"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
@@ -9211,15 +9186,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
+      <c r="B40" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
       <c r="I40" s="67"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
@@ -9227,66 +9202,25 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
+      <c r="B41" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
       <c r="I41" s="67"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="104" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
+  <mergeCells count="39">
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:H42"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
@@ -9299,10 +9233,34 @@
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J14 J18:J42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J14 J18:J41">
       <formula1>$M$2:$M$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/docment/テスト項目関連/テスト項目書.xlsx
+++ b/docment/テスト項目関連/テスト項目書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="396" windowWidth="22056" windowHeight="8664" tabRatio="603" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="396" windowWidth="22056" windowHeight="8664" tabRatio="603" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="161">
   <si>
     <t>確認項目</t>
     <rPh sb="0" eb="2">
@@ -242,16 +242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像が表示されているか</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>モーダルウィンドウが表示されているか？</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
@@ -853,16 +843,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マスをクリックすると、クリックしたマスにキャラクタ画像が表示されるか？</t>
-    <rPh sb="25" eb="27">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>規定回数以内にクリアフラグの画像をクリックしたら、クリアできるか？</t>
     <rPh sb="0" eb="2">
       <t>キテイ</t>
@@ -1323,16 +1303,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リセットを押すと、「もちもの」と「ほしいもの」が変更される</t>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>難易度「かんたん」　船の数5隻であるか？</t>
     <rPh sb="0" eb="3">
       <t>ナンイド</t>
@@ -2047,6 +2017,83 @@
     </rPh>
     <rPh sb="15" eb="18">
       <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度ボタンを押したら難易度事の問題に表示が変わっているか？</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（難易度のやさしいなどの文字）画像が表示されているか</t>
+    <rPh sb="1" eb="4">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（一番初めに）マスをクリックすると、クリックしたマスにキャラクタ画像が表示されるか？</t>
+    <rPh sb="1" eb="3">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隣あっていないマスをクリックしても反応しないか？</t>
+    <rPh sb="0" eb="1">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセットを押すと、「もちもの」と「ほしいもの」が変更されるか？</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2386,7 +2433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2646,6 +2693,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2655,34 +2726,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2692,12 +2760,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2727,6 +2789,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2736,12 +2804,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2761,6 +2823,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3080,16 +3154,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="82" t="s">
         <v>148</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
@@ -3336,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3352,23 +3426,23 @@
       <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118"/>
+      <c r="B2" s="121" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
       <c r="I2" s="70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="79" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="79" t="s">
         <v>16</v>
@@ -3379,13 +3453,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
       <c r="I3" s="77"/>
       <c r="J3" s="78"/>
       <c r="K3" s="78"/>
@@ -3396,15 +3470,15 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
+        <v>46</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="19"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -3412,15 +3486,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
+      <c r="B5" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
       <c r="I5" s="15"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6"/>
@@ -3428,15 +3502,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
+      <c r="B6" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
       <c r="I6" s="51"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6"/>
@@ -3444,15 +3518,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="105" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
+      <c r="B7" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
       <c r="I7" s="38"/>
       <c r="J7" s="2"/>
       <c r="K7" s="6"/>
@@ -3460,15 +3534,15 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
+      <c r="B8" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="34"/>
       <c r="J8" s="2"/>
       <c r="K8" s="6"/>
@@ -3476,15 +3550,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
+      <c r="B9" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="15"/>
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
@@ -3492,15 +3566,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
+      <c r="B10" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
       <c r="I10" s="33"/>
       <c r="J10" s="2"/>
       <c r="K10" s="6"/>
@@ -3508,15 +3582,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="105" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
+      <c r="B11" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
       <c r="I11" s="50"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -3527,23 +3601,23 @@
       <c r="A13" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108"/>
+      <c r="B13" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="113"/>
       <c r="I13" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>16</v>
@@ -3551,13 +3625,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="73"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="102"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="107"/>
       <c r="I14" s="56"/>
       <c r="J14" s="4"/>
       <c r="K14" s="6"/>
@@ -3567,13 +3641,13 @@
       <c r="A15" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="102"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="107"/>
       <c r="I15" s="58"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
@@ -3581,15 +3655,15 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="105" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
+      <c r="B16" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="67"/>
       <c r="J16" s="2"/>
       <c r="K16" s="6"/>
@@ -3597,15 +3671,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
+      <c r="B17" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="67"/>
       <c r="J17" s="2"/>
       <c r="K17" s="6"/>
@@ -3613,15 +3687,15 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
+      <c r="B18" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="67"/>
       <c r="J18" s="2"/>
       <c r="K18" s="6"/>
@@ -3629,15 +3703,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
+      <c r="B19" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
       <c r="I19" s="67"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
@@ -3645,15 +3719,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
+      <c r="B20" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="67"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
@@ -3661,15 +3735,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
+      <c r="B21" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
       <c r="I21" s="67"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
@@ -3677,15 +3751,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
+      <c r="B22" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
       <c r="I22" s="67"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
@@ -3693,15 +3767,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
+      <c r="B23" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
       <c r="I23" s="67"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -3709,15 +3783,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
+      <c r="B24" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
       <c r="I24" s="67"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
@@ -3725,15 +3799,15 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
+      <c r="B25" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
       <c r="I25" s="72"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
@@ -3741,15 +3815,15 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
+      <c r="B26" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
       <c r="I26" s="72"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
@@ -3757,15 +3831,15 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
+      <c r="B27" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
       <c r="I27" s="61"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
@@ -3773,15 +3847,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
+      <c r="B28" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
       <c r="I28" s="67"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
@@ -3789,15 +3863,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
+      <c r="B29" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="67"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
@@ -3805,15 +3879,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
+      <c r="B30" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="67"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
@@ -3821,15 +3895,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
+      <c r="B31" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="67"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
@@ -3837,15 +3911,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
+      <c r="B32" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
       <c r="I32" s="67"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
@@ -3853,15 +3927,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
+      <c r="B33" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="67"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
@@ -3869,15 +3943,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
+      <c r="B34" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="67"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
@@ -3885,15 +3959,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
+      <c r="B35" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
       <c r="I35" s="67"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
@@ -3901,15 +3975,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
+      <c r="B36" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
       <c r="I36" s="67"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
@@ -3917,15 +3991,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
+      <c r="B37" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
@@ -3933,15 +4007,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
+      <c r="B38" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
@@ -3949,6 +4023,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B3:H3"/>
@@ -3965,26 +4059,6 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4001,8 +4075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4017,23 +4091,23 @@
       <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118"/>
+      <c r="B2" s="121" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
       <c r="I2" s="70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="79" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="79" t="s">
         <v>16</v>
@@ -4044,13 +4118,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
       <c r="I3" s="77"/>
       <c r="J3" s="78"/>
       <c r="K3" s="78"/>
@@ -4061,15 +4135,15 @@
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
+        <v>45</v>
+      </c>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
       <c r="I4" s="26"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -4077,15 +4151,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
+      <c r="B5" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="53"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -4093,15 +4167,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
+      <c r="B6" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="53"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -4109,15 +4183,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
+      <c r="B7" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="53"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -4125,15 +4199,15 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
+      <c r="B8" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="11"/>
       <c r="J8" s="2"/>
       <c r="K8" s="6"/>
@@ -4141,15 +4215,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
+      <c r="B9" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
@@ -4157,15 +4231,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
+      <c r="B10" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="39"/>
       <c r="J10" s="2"/>
       <c r="K10" s="6"/>
@@ -4173,15 +4247,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
+      <c r="B11" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
       <c r="I11" s="11"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -4189,15 +4263,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
+      <c r="B12" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="39"/>
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
@@ -4205,15 +4279,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
+      <c r="B13" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
       <c r="I13" s="11"/>
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
@@ -4221,15 +4295,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
+      <c r="B14" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="33"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
@@ -4237,15 +4311,15 @@
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
+      <c r="B15" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="33"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
@@ -4256,23 +4330,23 @@
       <c r="A17" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="108"/>
+      <c r="B17" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="113"/>
       <c r="I17" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>16</v>
@@ -4280,13 +4354,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="73"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="102"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
       <c r="I18" s="56"/>
       <c r="J18" s="4"/>
       <c r="K18" s="6"/>
@@ -4296,13 +4370,13 @@
       <c r="A19" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="102"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="107"/>
       <c r="I19" s="58"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
@@ -4310,15 +4384,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="105" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
+      <c r="B20" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="67"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
@@ -4326,15 +4400,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
+      <c r="B21" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
       <c r="I21" s="67"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
@@ -4342,15 +4416,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
+      <c r="B22" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
       <c r="I22" s="67"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
@@ -4358,15 +4432,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
+      <c r="B23" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
       <c r="I23" s="67"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -4374,15 +4448,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
+      <c r="B24" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
       <c r="I24" s="67"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
@@ -4390,15 +4464,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
+      <c r="B25" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
       <c r="I25" s="67"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
@@ -4406,15 +4480,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
+      <c r="B26" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
       <c r="I26" s="67"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
@@ -4422,15 +4496,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
+      <c r="B27" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
       <c r="I27" s="67"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
@@ -4438,15 +4512,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
+      <c r="B28" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
       <c r="I28" s="67"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
@@ -4454,15 +4528,15 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
+      <c r="B29" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
       <c r="I29" s="72"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
@@ -4470,15 +4544,15 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
+      <c r="B30" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
       <c r="I30" s="72"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
@@ -4486,15 +4560,15 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
+      <c r="B31" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
       <c r="I31" s="61"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
@@ -4502,15 +4576,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
+      <c r="B32" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
       <c r="I32" s="67"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
@@ -4518,15 +4592,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
+      <c r="B33" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="67"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
@@ -4534,15 +4608,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
+      <c r="B34" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="67"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
@@ -4550,15 +4624,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
+      <c r="B35" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
       <c r="I35" s="67"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
@@ -4566,15 +4640,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
+      <c r="B36" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
       <c r="I36" s="67"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
@@ -4582,15 +4656,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
+      <c r="B37" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
@@ -4598,15 +4672,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
+      <c r="B38" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
@@ -4614,15 +4688,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
+      <c r="B39" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
       <c r="I39" s="67"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
@@ -4630,15 +4704,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
+      <c r="B40" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
       <c r="I40" s="67"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
@@ -4646,15 +4720,15 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
+      <c r="B41" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
       <c r="I41" s="67"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
@@ -4662,15 +4736,15 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
+      <c r="B42" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
       <c r="I42" s="67"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
@@ -4678,6 +4752,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
@@ -4694,30 +4792,6 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4752,21 +4826,21 @@
       <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
@@ -4774,13 +4848,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -4793,13 +4867,13 @@
       <c r="A4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
       <c r="I4" s="20"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -4810,15 +4884,15 @@
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94"/>
+      <c r="B5" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
       <c r="I5" s="17"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4826,15 +4900,15 @@
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94"/>
+      <c r="B6" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
       <c r="I6" s="17"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -4842,15 +4916,15 @@
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
+      <c r="B7" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="17"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -4858,15 +4932,15 @@
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="94"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="13"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -4874,15 +4948,15 @@
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
+      <c r="B9" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="17"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -4890,15 +4964,15 @@
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="94"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="17"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -4908,13 +4982,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="73"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -4924,13 +4998,13 @@
       <c r="A12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
       <c r="I12" s="14"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -4938,15 +5012,15 @@
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="94"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="91"/>
       <c r="I13" s="17"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4954,15 +5028,15 @@
     </row>
     <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="91"/>
       <c r="I14" s="24"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4970,15 +5044,15 @@
     </row>
     <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="94"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
       <c r="I15" s="17"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4986,13 +5060,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="73"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -5002,13 +5076,13 @@
       <c r="A17" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
       <c r="I17" s="14"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -5016,15 +5090,15 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94"/>
       <c r="I18" s="30"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
@@ -5032,15 +5106,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91"/>
       <c r="I19" s="17"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -5048,15 +5122,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="86"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
       <c r="I20" s="28"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -5064,15 +5138,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="86"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
       <c r="I21" s="15"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -5080,13 +5154,13 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="81"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
       <c r="I22" s="11"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -5094,15 +5168,15 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
+        <v>129</v>
+      </c>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="14"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -5110,15 +5184,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="91"/>
       <c r="I24" s="17"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -5126,15 +5200,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="94"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="91"/>
       <c r="I25" s="24"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -5142,15 +5216,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="94"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="17"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -5158,15 +5232,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="86"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="94"/>
       <c r="I27" s="30"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -5174,15 +5248,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="86"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="94"/>
       <c r="I28" s="30"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -5190,11 +5264,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B26:H26"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B15:H15"/>
@@ -5211,12 +5286,11 @@
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5247,21 +5321,21 @@
       <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
@@ -5269,13 +5343,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -5288,13 +5362,13 @@
       <c r="A4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="20"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -5305,15 +5379,15 @@
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86"/>
+      <c r="B5" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
       <c r="I5" s="28"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -5321,15 +5395,15 @@
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="86"/>
+      <c r="B6" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
       <c r="I6" s="28"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -5337,15 +5411,15 @@
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="86"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="28"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -5353,15 +5427,15 @@
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="86"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
       <c r="I8" s="28"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -5369,15 +5443,15 @@
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
+      <c r="B9" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
       <c r="I9" s="28"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -5385,15 +5459,15 @@
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="86"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
       <c r="I10" s="28"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -5403,13 +5477,13 @@
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="81"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="86"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="94"/>
       <c r="I11" s="21"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -5419,13 +5493,13 @@
       <c r="A12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="98"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="105"/>
       <c r="I12" s="14"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -5433,15 +5507,15 @@
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="94"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="91"/>
       <c r="I13" s="17"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -5449,15 +5523,15 @@
     </row>
     <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="91"/>
       <c r="I14" s="17"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -5465,13 +5539,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="73"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="100"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -5481,13 +5555,13 @@
       <c r="A16" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="105"/>
       <c r="I16" s="14"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -5495,15 +5569,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="86"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="94"/>
       <c r="I17" s="29"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -5511,15 +5585,15 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="17"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -5527,15 +5601,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="86"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
       <c r="I19" s="28"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -5543,15 +5617,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="86"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
       <c r="I20" s="15"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -5559,13 +5633,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="73"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="100"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="103"/>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -5573,15 +5647,15 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
+        <v>129</v>
+      </c>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="105"/>
       <c r="I22" s="14"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -5589,15 +5663,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="86"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
       <c r="I23" s="29"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
@@ -5605,15 +5679,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
       <c r="I24" s="30"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -5621,15 +5695,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="86"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="94"/>
       <c r="I25" s="30"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -5637,15 +5711,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="94"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="17"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -5653,15 +5727,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="86"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="94"/>
       <c r="I27" s="30"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -5669,15 +5743,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="86"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="94"/>
       <c r="I28" s="30"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -5685,15 +5759,8 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
@@ -5710,8 +5777,15 @@
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5742,24 +5816,24 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
       <c r="I2" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
@@ -5769,14 +5843,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -5786,128 +5860,128 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
+      <c r="A4" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
       <c r="I4" s="26"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
+      <c r="A5" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
       <c r="I5" s="12"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A6" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
+      <c r="A6" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
       <c r="I6" s="12"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
+      <c r="A7" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="13"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
+      <c r="A8" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
       <c r="I8" s="12"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
+      <c r="A9" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="23"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A10" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="94"/>
+      <c r="A10" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="83"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A11" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="94"/>
+      <c r="A11" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="83"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -5915,16 +5989,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5942,7 +6016,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5953,24 +6027,24 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
       <c r="I2" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
@@ -5980,14 +6054,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -5997,128 +6071,128 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
+      <c r="A4" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
       <c r="I4" s="26"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86"/>
+      <c r="A5" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
       <c r="I5" s="26"/>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="86"/>
+      <c r="A6" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
       <c r="I6" s="26"/>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="86"/>
+      <c r="A7" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="58"/>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="86"/>
+      <c r="A8" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
       <c r="I8" s="58"/>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
+      <c r="A9" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
       <c r="I9" s="58"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A10" s="105" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
+      <c r="A10" s="110" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
       <c r="I10" s="12"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A11" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
+      <c r="A11" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
       <c r="I11" s="12"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -6127,16 +6201,16 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A12" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
+      <c r="A12" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
       <c r="I12" s="16"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -6145,16 +6219,16 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A13" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="100"/>
+      <c r="A13" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103"/>
       <c r="I13" s="19"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -6163,32 +6237,32 @@
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
+      <c r="A14" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="16"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="100"/>
+      <c r="A15" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
       <c r="I15" s="19"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -6196,6 +6270,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -6205,11 +6284,6 @@
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6244,23 +6318,23 @@
       <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
+      <c r="B2" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
       <c r="I2" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
@@ -6271,13 +6345,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -6288,15 +6362,15 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="113"/>
+        <v>39</v>
+      </c>
+      <c r="B4" s="118"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="14"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -6305,7 +6379,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
@@ -6321,7 +6395,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" s="60"/>
       <c r="D6" s="60"/>
@@ -6337,7 +6411,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
@@ -6353,7 +6427,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -6369,7 +6443,7 @@
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="63"/>
       <c r="D9" s="63"/>
@@ -6385,7 +6459,7 @@
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -6401,7 +6475,7 @@
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="66"/>
@@ -6417,7 +6491,7 @@
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="66"/>
@@ -6433,7 +6507,7 @@
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="66"/>
@@ -6448,15 +6522,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
+      <c r="B14" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="91"/>
       <c r="I14" s="24"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
@@ -6465,7 +6539,7 @@
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="66"/>
@@ -6481,7 +6555,7 @@
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="66"/>
@@ -6497,7 +6571,7 @@
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="66"/>
@@ -6513,7 +6587,7 @@
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="66"/>
@@ -6529,7 +6603,7 @@
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
@@ -6545,7 +6619,7 @@
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="63"/>
       <c r="D20" s="63"/>
@@ -6563,23 +6637,23 @@
       <c r="A22" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="108"/>
+      <c r="B22" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="113"/>
       <c r="I22" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>16</v>
@@ -6587,13 +6661,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="73"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="102"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="36"/>
       <c r="J23" s="4"/>
       <c r="K23" s="6"/>
@@ -6603,13 +6677,13 @@
       <c r="A24" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="102"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="107"/>
       <c r="I24" s="37"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
@@ -6617,15 +6691,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="105" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
+      <c r="B25" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
       <c r="I25" s="67"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
@@ -6633,15 +6707,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
+      <c r="B26" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
       <c r="I26" s="67"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
@@ -6649,15 +6723,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
+      <c r="B27" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
       <c r="I27" s="67"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
@@ -6665,15 +6739,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
+      <c r="B28" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
       <c r="I28" s="67"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
@@ -6681,15 +6755,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
+      <c r="B29" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="67"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
@@ -6697,15 +6771,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
+      <c r="B30" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="67"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
@@ -6713,15 +6787,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
+      <c r="B31" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="67"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
@@ -6729,15 +6803,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
+      <c r="B32" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
       <c r="I32" s="67"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
@@ -6745,15 +6819,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
+      <c r="B33" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="67"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
@@ -6761,15 +6835,15 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
+      <c r="B34" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
       <c r="I34" s="72"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
@@ -6777,15 +6851,15 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
+      <c r="B35" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
       <c r="I35" s="72"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
@@ -6793,15 +6867,15 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
+      <c r="B36" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
       <c r="I36" s="61"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
@@ -6809,15 +6883,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
+      <c r="B37" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
@@ -6825,15 +6899,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
+      <c r="B38" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
@@ -6841,15 +6915,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
+      <c r="B39" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
       <c r="I39" s="67"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
@@ -6857,15 +6931,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
+      <c r="B40" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
       <c r="I40" s="67"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
@@ -6873,15 +6947,15 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
+      <c r="B41" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
       <c r="I41" s="67"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
@@ -6889,15 +6963,15 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
+      <c r="B42" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
       <c r="I42" s="67"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
@@ -6905,15 +6979,15 @@
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
+      <c r="B43" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
       <c r="I43" s="67"/>
       <c r="J43" s="2"/>
       <c r="K43" s="6"/>
@@ -6921,15 +6995,15 @@
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
+      <c r="B44" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
       <c r="I44" s="67"/>
       <c r="J44" s="2"/>
       <c r="K44" s="6"/>
@@ -6937,15 +7011,15 @@
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-      <c r="B45" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
+      <c r="B45" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
       <c r="I45" s="67"/>
       <c r="J45" s="2"/>
       <c r="K45" s="6"/>
@@ -6953,15 +7027,15 @@
     </row>
     <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
+      <c r="B46" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
       <c r="I46" s="67"/>
       <c r="J46" s="2"/>
       <c r="K46" s="6"/>
@@ -6969,15 +7043,15 @@
     </row>
     <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
-      <c r="B47" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
+      <c r="B47" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
       <c r="I47" s="67"/>
       <c r="J47" s="2"/>
       <c r="K47" s="6"/>
@@ -6985,6 +7059,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="B23:H23"/>
@@ -7001,20 +7089,6 @@
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7031,7 +7105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37:H37"/>
     </sheetView>
   </sheetViews>
@@ -7047,23 +7121,23 @@
       <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118"/>
+      <c r="B2" s="121" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
       <c r="I2" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
@@ -7074,13 +7148,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -7091,15 +7165,15 @@
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
+        <v>40</v>
+      </c>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
       <c r="I4" s="26"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -7107,15 +7181,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="121" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
+      <c r="B5" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
       <c r="I5" s="49"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6"/>
@@ -7123,15 +7197,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="121" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
+      <c r="B6" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
       <c r="I6" s="47"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6"/>
@@ -7139,15 +7213,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="121" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
+      <c r="B7" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
       <c r="I7" s="47"/>
       <c r="J7" s="2"/>
       <c r="K7" s="6"/>
@@ -7155,15 +7229,15 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="121" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
+      <c r="B8" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
       <c r="I8" s="49"/>
       <c r="J8" s="2"/>
       <c r="K8" s="6"/>
@@ -7171,15 +7245,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="121" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
+      <c r="B9" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
       <c r="I9" s="49"/>
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
@@ -7187,15 +7261,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="121" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
+      <c r="B10" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="47"/>
       <c r="J10" s="2"/>
       <c r="K10" s="6"/>
@@ -7203,15 +7277,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
+      <c r="B11" s="126" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="49"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -7219,15 +7293,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="121" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
+      <c r="B12" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
       <c r="I12" s="49"/>
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
@@ -7235,15 +7309,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="121" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
+      <c r="B13" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="49"/>
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
@@ -7251,15 +7325,15 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
+      <c r="B14" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
       <c r="I14" s="27"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
@@ -7267,15 +7341,15 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
+      <c r="B15" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
       <c r="I15" s="31"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
@@ -7283,15 +7357,15 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
+      <c r="B16" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
       <c r="I16" s="15"/>
       <c r="J16" s="2"/>
       <c r="K16" s="6"/>
@@ -7299,15 +7373,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
+      <c r="B17" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="15"/>
       <c r="J17" s="2"/>
       <c r="K17" s="6"/>
@@ -7331,23 +7405,23 @@
       <c r="A19" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="108"/>
+      <c r="B19" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="113"/>
       <c r="I19" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>16</v>
@@ -7355,13 +7429,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="73"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="102"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107"/>
       <c r="I20" s="56"/>
       <c r="J20" s="4"/>
       <c r="K20" s="6"/>
@@ -7371,13 +7445,13 @@
       <c r="A21" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="102"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="58"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
@@ -7385,15 +7459,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="105" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
+      <c r="B22" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
       <c r="I22" s="67"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
@@ -7401,15 +7475,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
+      <c r="B23" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
       <c r="I23" s="67"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -7417,15 +7491,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
+      <c r="B24" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
       <c r="I24" s="67"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
@@ -7433,15 +7507,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
+      <c r="B25" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
       <c r="I25" s="67"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
@@ -7449,15 +7523,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
+      <c r="B26" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
       <c r="I26" s="67"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
@@ -7465,15 +7539,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
+      <c r="B27" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
       <c r="I27" s="67"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
@@ -7481,15 +7555,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
+      <c r="B28" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
       <c r="I28" s="67"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
@@ -7497,15 +7571,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
+      <c r="B29" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="67"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
@@ -7513,15 +7587,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
+      <c r="B30" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="67"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
@@ -7529,15 +7603,15 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
+      <c r="B31" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
       <c r="I31" s="72"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
@@ -7545,15 +7619,15 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
+      <c r="B32" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
       <c r="I32" s="72"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
@@ -7561,15 +7635,15 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
+      <c r="B33" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
       <c r="I33" s="61"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
@@ -7577,15 +7651,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
+      <c r="B34" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="67"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
@@ -7593,15 +7667,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
+      <c r="B35" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
       <c r="I35" s="67"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
@@ -7609,15 +7683,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
+      <c r="B36" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
       <c r="I36" s="67"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
@@ -7625,15 +7699,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
+      <c r="B37" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
@@ -7641,15 +7715,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
+      <c r="B38" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
@@ -7657,15 +7731,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
+      <c r="B39" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
       <c r="I39" s="67"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
@@ -7673,15 +7747,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
+      <c r="B40" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
       <c r="I40" s="67"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
@@ -7689,15 +7763,15 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
+      <c r="B41" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
       <c r="I41" s="67"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
@@ -7705,15 +7779,15 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
+      <c r="B42" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
       <c r="I42" s="67"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
@@ -7721,15 +7795,15 @@
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
+      <c r="B43" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
       <c r="I43" s="67"/>
       <c r="J43" s="2"/>
       <c r="K43" s="6"/>
@@ -7737,15 +7811,15 @@
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
+      <c r="B44" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
       <c r="I44" s="67"/>
       <c r="J44" s="2"/>
       <c r="K44" s="6"/>
@@ -7753,6 +7827,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
     <mergeCell ref="B44:H44"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -7769,32 +7869,6 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7811,8 +7885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7829,22 +7903,22 @@
       <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
+      <c r="B2" s="121" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="123"/>
       <c r="H2" s="79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="79" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="79" t="s">
         <v>16</v>
@@ -7855,12 +7929,12 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
       <c r="H3" s="77"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78"/>
@@ -7871,14 +7945,14 @@
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
+        <v>49</v>
+      </c>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="25"/>
       <c r="I4" s="4"/>
       <c r="J4" s="6"/>
@@ -7886,14 +7960,14 @@
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="B5" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
       <c r="H5" s="53"/>
       <c r="I5" s="4"/>
       <c r="J5" s="6"/>
@@ -7901,14 +7975,14 @@
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="B6" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="53"/>
       <c r="I6" s="4"/>
       <c r="J6" s="6"/>
@@ -7916,14 +7990,14 @@
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
+      <c r="B7" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="53"/>
       <c r="I7" s="4"/>
       <c r="J7" s="6"/>
@@ -7931,14 +8005,14 @@
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
+      <c r="B8" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
       <c r="H8" s="53"/>
       <c r="I8" s="4"/>
       <c r="J8" s="6"/>
@@ -7946,14 +8020,14 @@
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
+      <c r="B9" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
       <c r="H9" s="53"/>
       <c r="I9" s="4"/>
       <c r="J9" s="6"/>
@@ -7961,14 +8035,14 @@
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
+      <c r="B10" s="101" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
       <c r="H10" s="53"/>
       <c r="I10" s="4"/>
       <c r="J10" s="6"/>
@@ -7976,14 +8050,14 @@
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
+      <c r="B11" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
       <c r="H11" s="11"/>
       <c r="I11" s="2"/>
       <c r="J11" s="6"/>
@@ -7991,14 +8065,14 @@
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
+      <c r="B12" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
       <c r="H12" s="32"/>
       <c r="I12" s="2"/>
       <c r="J12" s="6"/>
@@ -8006,14 +8080,14 @@
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
+      <c r="B13" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
       <c r="H13" s="11"/>
       <c r="I13" s="2"/>
       <c r="J13" s="6"/>
@@ -8021,14 +8095,14 @@
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
+      <c r="B14" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
       <c r="H14" s="11"/>
       <c r="I14" s="2"/>
       <c r="J14" s="6"/>
@@ -8036,14 +8110,14 @@
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
+      <c r="B15" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="32"/>
       <c r="I15" s="2"/>
       <c r="J15" s="6"/>
@@ -8051,14 +8125,14 @@
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
+      <c r="B16" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
       <c r="H16" s="32"/>
       <c r="I16" s="2"/>
       <c r="J16" s="6"/>
@@ -8066,14 +8140,14 @@
     </row>
     <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="105" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
+      <c r="B17" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
       <c r="H17" s="57"/>
       <c r="I17" s="2"/>
       <c r="J17" s="6"/>
@@ -8081,14 +8155,14 @@
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
+      <c r="B18" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
       <c r="H18" s="57"/>
       <c r="I18" s="2"/>
       <c r="J18" s="6"/>
@@ -8099,22 +8173,22 @@
       <c r="A20" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
+      <c r="B20" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
       <c r="H20" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>16</v>
@@ -8122,12 +8196,12 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="73"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="56"/>
       <c r="I21" s="4"/>
       <c r="J21" s="6"/>
@@ -8137,12 +8211,12 @@
       <c r="A22" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
       <c r="H22" s="58"/>
       <c r="I22" s="2"/>
       <c r="J22" s="6"/>
@@ -8150,14 +8224,14 @@
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="105" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
+      <c r="B23" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
       <c r="H23" s="67"/>
       <c r="I23" s="2"/>
       <c r="J23" s="6"/>
@@ -8165,14 +8239,14 @@
     </row>
     <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
+      <c r="B24" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
       <c r="H24" s="67"/>
       <c r="I24" s="2"/>
       <c r="J24" s="6"/>
@@ -8180,14 +8254,14 @@
     </row>
     <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
+      <c r="B25" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
       <c r="H25" s="67"/>
       <c r="I25" s="2"/>
       <c r="J25" s="6"/>
@@ -8195,14 +8269,14 @@
     </row>
     <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
+      <c r="B26" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
       <c r="H26" s="67"/>
       <c r="I26" s="2"/>
       <c r="J26" s="6"/>
@@ -8210,14 +8284,14 @@
     </row>
     <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
+      <c r="B27" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
       <c r="H27" s="67"/>
       <c r="I27" s="2"/>
       <c r="J27" s="6"/>
@@ -8225,14 +8299,14 @@
     </row>
     <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
+      <c r="B28" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
       <c r="H28" s="67"/>
       <c r="I28" s="2"/>
       <c r="J28" s="6"/>
@@ -8240,14 +8314,14 @@
     </row>
     <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
+      <c r="B29" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
       <c r="H29" s="67"/>
       <c r="I29" s="2"/>
       <c r="J29" s="6"/>
@@ -8255,14 +8329,14 @@
     </row>
     <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
+      <c r="B30" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
       <c r="H30" s="67"/>
       <c r="I30" s="2"/>
       <c r="J30" s="6"/>
@@ -8270,14 +8344,14 @@
     </row>
     <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
+      <c r="B31" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
       <c r="H31" s="67"/>
       <c r="I31" s="2"/>
       <c r="J31" s="6"/>
@@ -8285,14 +8359,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
+      <c r="B32" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
       <c r="H32" s="72"/>
       <c r="I32" s="2"/>
       <c r="J32" s="6"/>
@@ -8300,14 +8374,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
+      <c r="B33" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
       <c r="H33" s="72"/>
       <c r="I33" s="2"/>
       <c r="J33" s="6"/>
@@ -8315,14 +8389,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
+      <c r="B34" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
       <c r="H34" s="61"/>
       <c r="I34" s="2"/>
       <c r="J34" s="6"/>
@@ -8330,14 +8404,14 @@
     </row>
     <row r="35" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
+      <c r="B35" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
       <c r="H35" s="67"/>
       <c r="I35" s="2"/>
       <c r="J35" s="6"/>
@@ -8345,14 +8419,14 @@
     </row>
     <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
+      <c r="B36" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
       <c r="H36" s="67"/>
       <c r="I36" s="2"/>
       <c r="J36" s="6"/>
@@ -8360,14 +8434,14 @@
     </row>
     <row r="37" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
+      <c r="B37" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
       <c r="H37" s="67"/>
       <c r="I37" s="2"/>
       <c r="J37" s="6"/>
@@ -8375,14 +8449,14 @@
     </row>
     <row r="38" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
+      <c r="B38" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
       <c r="H38" s="67"/>
       <c r="I38" s="2"/>
       <c r="J38" s="6"/>
@@ -8390,14 +8464,14 @@
     </row>
     <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
+      <c r="B39" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
       <c r="H39" s="67"/>
       <c r="I39" s="2"/>
       <c r="J39" s="6"/>
@@ -8405,14 +8479,14 @@
     </row>
     <row r="40" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
+      <c r="B40" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
       <c r="H40" s="67"/>
       <c r="I40" s="2"/>
       <c r="J40" s="6"/>
@@ -8420,14 +8494,14 @@
     </row>
     <row r="41" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
+      <c r="B41" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
       <c r="H41" s="67"/>
       <c r="I41" s="2"/>
       <c r="J41" s="6"/>
@@ -8435,14 +8509,14 @@
     </row>
     <row r="42" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
+      <c r="B42" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
       <c r="H42" s="67"/>
       <c r="I42" s="2"/>
       <c r="J42" s="6"/>
@@ -8450,14 +8524,14 @@
     </row>
     <row r="43" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
+      <c r="B43" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
       <c r="H43" s="67"/>
       <c r="I43" s="2"/>
       <c r="J43" s="6"/>
@@ -8465,14 +8539,14 @@
     </row>
     <row r="44" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
+      <c r="B44" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
       <c r="H44" s="67"/>
       <c r="I44" s="2"/>
       <c r="J44" s="6"/>
@@ -8480,14 +8554,14 @@
     </row>
     <row r="45" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-      <c r="B45" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
+      <c r="B45" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
       <c r="H45" s="67"/>
       <c r="I45" s="2"/>
       <c r="J45" s="6"/>
@@ -8495,6 +8569,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="B45:G45"/>
@@ -8511,33 +8612,6 @@
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -8554,8 +8628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8575,21 +8649,21 @@
       <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
       <c r="I2" s="70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="79" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="79" t="s">
         <v>16</v>
@@ -8600,13 +8674,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
       <c r="I3" s="77"/>
       <c r="J3" s="78"/>
       <c r="K3" s="78"/>
@@ -8617,15 +8691,15 @@
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
+        <v>42</v>
+      </c>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
       <c r="I4" s="25"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -8633,15 +8707,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
+      <c r="B5" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="53"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6"/>
@@ -8649,15 +8723,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
+      <c r="B6" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="53"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6"/>
@@ -8665,15 +8739,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
+      <c r="B7" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="53"/>
       <c r="J7" s="2"/>
       <c r="K7" s="6"/>
@@ -8681,15 +8755,15 @@
     </row>
     <row r="8" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
-      <c r="B8" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
+      <c r="B8" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="32"/>
       <c r="J8" s="2"/>
       <c r="K8" s="44"/>
@@ -8697,15 +8771,15 @@
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
-      <c r="B9" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
+      <c r="B9" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="32"/>
       <c r="J9" s="2"/>
       <c r="K9" s="44"/>
@@ -8713,15 +8787,15 @@
     </row>
     <row r="10" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="44"/>
-      <c r="B10" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
+      <c r="B10" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="48"/>
       <c r="J10" s="2"/>
       <c r="K10" s="44"/>
@@ -8729,15 +8803,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
+      <c r="B11" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
       <c r="I11" s="15"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -8745,15 +8819,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
+      <c r="B12" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
       <c r="I12" s="12"/>
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
@@ -8761,15 +8835,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
+      <c r="B13" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
       <c r="I13" s="13"/>
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
@@ -8777,42 +8851,57 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
+      <c r="B14" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="33"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="110" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="9"/>
+    </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="55" t="s">
-        <v>58</v>
+      <c r="B16" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="87" t="s">
+        <v>57</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>16</v>
@@ -8820,14 +8909,14 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="73"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="56"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="85"/>
       <c r="J17" s="4"/>
       <c r="K17" s="6"/>
       <c r="L17" s="4"/>
@@ -8836,29 +8925,29 @@
       <c r="A18" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="58"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="88"/>
       <c r="J18" s="2"/>
       <c r="K18" s="6"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="105" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
+      <c r="B19" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91"/>
       <c r="I19" s="67"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
@@ -8866,15 +8955,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
+      <c r="B20" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="91"/>
       <c r="I20" s="67"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
@@ -8882,15 +8971,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
+      <c r="B21" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="91"/>
       <c r="I21" s="67"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
@@ -8898,15 +8987,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
+      <c r="B22" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="91"/>
       <c r="I22" s="67"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
@@ -8914,15 +9003,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
+      <c r="B23" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="91"/>
       <c r="I23" s="67"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -8930,15 +9019,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
+      <c r="B24" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="91"/>
       <c r="I24" s="67"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
@@ -8946,15 +9035,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
+      <c r="B25" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="91"/>
       <c r="I25" s="67"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
@@ -8962,15 +9051,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
+      <c r="B26" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="67"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
@@ -8978,15 +9067,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
+      <c r="B27" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="91"/>
       <c r="I27" s="67"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
@@ -8994,15 +9083,15 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
+      <c r="B28" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
       <c r="I28" s="72"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
@@ -9010,15 +9099,15 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
+      <c r="B29" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="72"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
@@ -9026,15 +9115,15 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
+      <c r="B30" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="130"/>
       <c r="I30" s="61"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
@@ -9042,15 +9131,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
+      <c r="B31" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="91"/>
       <c r="I31" s="67"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
@@ -9058,15 +9147,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
+      <c r="B32" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="67"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
@@ -9074,15 +9163,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
+      <c r="B33" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="91"/>
       <c r="I33" s="67"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
@@ -9090,15 +9179,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
+      <c r="B34" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="67"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
@@ -9106,15 +9195,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
+      <c r="B35" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="91"/>
       <c r="I35" s="67"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
@@ -9122,15 +9211,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
+      <c r="B36" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="67"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
@@ -9138,15 +9227,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
+      <c r="B37" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="91"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
@@ -9154,15 +9243,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
+      <c r="B38" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
@@ -9170,15 +9259,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
+      <c r="B39" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="91"/>
       <c r="I39" s="67"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
@@ -9186,15 +9275,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
+      <c r="B40" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="91"/>
       <c r="I40" s="67"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
@@ -9202,22 +9291,46 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
+      <c r="B41" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="67"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
       <c r="L41" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
@@ -9234,33 +9347,10 @@
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J14 J18:J41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J15 J18:J41">
       <formula1>$M$2:$M$3</formula1>
     </dataValidation>
   </dataValidations>
